--- a/pg1pg2.xlsx
+++ b/pg1pg2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z004B1DR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UserData\z004b1dr\Documents\GitHub\test-repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC2FB3B-0CAB-4D84-BDAD-AE095AEE9E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC69B537-2A0A-4715-A3F5-5F7B964408F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="2580" windowWidth="33750" windowHeight="16530" activeTab="2" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
+    <workbookView xWindow="-9264" yWindow="4764" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{0F261550-AC4B-421C-AB6F-4B5CC306291A}"/>
   </bookViews>
   <sheets>
     <sheet name="CONVERT" sheetId="3" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="USB" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mPCIe!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">USB!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mPCIe!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">USB!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>PG1</t>
   </si>
@@ -190,14 +190,63 @@
     <t>ORICO BT4.0</t>
   </si>
   <si>
-    <t>NACHSEHEN &amp; TESTEN</t>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>7392:7811</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>a12:0001</t>
+    </r>
+  </si>
+  <si>
+    <t>SAMZHE SZ-666 CSR8510</t>
+  </si>
+  <si>
+    <t>0a12:0001</t>
+  </si>
+  <si>
+    <t>ORICO CSR8510</t>
+  </si>
+  <si>
+    <t>047f:c025</t>
+  </si>
+  <si>
+    <t>0403:6015</t>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>a12:0001</t>
+    </r>
+  </si>
+  <si>
+    <t>CSR4.0 CSR8510</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +288,37 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -283,7 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -300,23 +380,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -636,7 +728,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,315 +746,314 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="5"/>
-    <col min="2" max="2" width="30.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.77734375" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="2" width="11.5546875" style="5"/>
+    <col min="3" max="3" width="30.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D15" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="C19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E1" xr:uid="{220BD30D-AB4B-4341-A6C6-84087A5392BB}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -970,210 +1061,265 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:D14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="49.77734375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="11.5546875" style="9"/>
+    <col min="2" max="2" width="29.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="49.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="E2" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="C9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="D12" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="D13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C14" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E14" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="D15" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
+      <c r="D16" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D13">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:E1" xr:uid="{FC2D586F-BA90-4A62-A34D-C89014B6D188}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E16">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
